--- a/basic_analysis/Matlab_scripts/Data_Input_Basic_Analysis_Fluo.xlsx
+++ b/basic_analysis/Matlab_scripts/Data_Input_Basic_Analysis_Fluo.xlsx
@@ -1,47 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\uppersat-raw\Gani_sv_WS\git\bs_Twitch\basic_analysis\Matlab_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15987DAA-C0C2-4BF1-B8B2-A49386EB44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3ACE3F-89F6-4DEA-8632-3484B3D9F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3000" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="6" r:id="rId1"/>
-    <sheet name="20240319" sheetId="27" r:id="rId2"/>
-    <sheet name="20240316" sheetId="26" r:id="rId3"/>
-    <sheet name="20231221" sheetId="25" r:id="rId4"/>
-    <sheet name="20231031" sheetId="24" r:id="rId5"/>
-    <sheet name="20230927" sheetId="23" r:id="rId6"/>
-    <sheet name="20230815" sheetId="22" r:id="rId7"/>
-    <sheet name="20230809" sheetId="21" r:id="rId8"/>
-    <sheet name="20230804" sheetId="20" r:id="rId9"/>
-    <sheet name="20230726" sheetId="19" r:id="rId10"/>
-    <sheet name="20230705" sheetId="18" r:id="rId11"/>
-    <sheet name="20230411" sheetId="17" r:id="rId12"/>
-    <sheet name="20230331" sheetId="16" r:id="rId13"/>
-    <sheet name="20230323" sheetId="15" r:id="rId14"/>
-    <sheet name="20230215_fluo" sheetId="14" r:id="rId15"/>
-    <sheet name="20230308_fluo" sheetId="13" r:id="rId16"/>
-    <sheet name="20230308" sheetId="12" r:id="rId17"/>
-    <sheet name="20230221" sheetId="11" r:id="rId18"/>
-    <sheet name="20230215" sheetId="10" r:id="rId19"/>
-    <sheet name="20230131" sheetId="9" r:id="rId20"/>
-    <sheet name="20230126" sheetId="8" r:id="rId21"/>
-    <sheet name="20230124" sheetId="5" r:id="rId22"/>
+    <sheet name="20241023" sheetId="32" r:id="rId2"/>
+    <sheet name="20241015" sheetId="31" r:id="rId3"/>
+    <sheet name="20241011" sheetId="30" r:id="rId4"/>
+    <sheet name="20241002" sheetId="29" r:id="rId5"/>
+    <sheet name="20241001" sheetId="28" r:id="rId6"/>
+    <sheet name="20240319" sheetId="27" r:id="rId7"/>
+    <sheet name="20240316" sheetId="26" r:id="rId8"/>
+    <sheet name="20231221" sheetId="25" r:id="rId9"/>
+    <sheet name="20231031" sheetId="24" r:id="rId10"/>
+    <sheet name="20230927" sheetId="23" r:id="rId11"/>
+    <sheet name="20230815" sheetId="22" r:id="rId12"/>
+    <sheet name="20230809" sheetId="21" r:id="rId13"/>
+    <sheet name="20230804" sheetId="20" r:id="rId14"/>
+    <sheet name="20230726" sheetId="19" r:id="rId15"/>
+    <sheet name="20230705" sheetId="18" r:id="rId16"/>
+    <sheet name="20230411" sheetId="17" r:id="rId17"/>
+    <sheet name="20230331" sheetId="16" r:id="rId18"/>
+    <sheet name="20230323" sheetId="15" r:id="rId19"/>
+    <sheet name="20230215_fluo" sheetId="14" r:id="rId20"/>
+    <sheet name="20230308_fluo" sheetId="13" r:id="rId21"/>
+    <sheet name="20230308" sheetId="12" r:id="rId22"/>
+    <sheet name="20230221" sheetId="11" r:id="rId23"/>
+    <sheet name="20230215" sheetId="10" r:id="rId24"/>
+    <sheet name="20230131" sheetId="9" r:id="rId25"/>
+    <sheet name="20230126" sheetId="8" r:id="rId26"/>
+    <sheet name="20230124" sheetId="5" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="74">
   <si>
     <t>177 fliC-</t>
   </si>
@@ -215,6 +220,54 @@
   </si>
   <si>
     <t>2040 fliC- cyaB- pCuAlgent_mNG_cyaB_d220-416 CuA200</t>
+  </si>
+  <si>
+    <t>2581 fliC- cyaB- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2583 fliC- cyaB- pilJ- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2584 fliC- cyaB- pilG- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2585 fliC- cyaB- fimL- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2586 fliC- cyaB- chpA- pCuAlgent_mNeonGreen_cyaB_R456L CuA20</t>
+  </si>
+  <si>
+    <t>2582 fliC- cyaB- pCuAlgent_mNeonGreen_cyaB_E189R CuA20</t>
+  </si>
+  <si>
+    <t>2587 fliC- cyaB- pilJ- pCuAlgent_mNeonGreen_cyaB_E189R CuA20</t>
+  </si>
+  <si>
+    <t>2588 fliC- cyaB- pilG- pCuAlgent_mNeonGreen_cyaB_E189R CuA20</t>
+  </si>
+  <si>
+    <t>2589 fliC- cyaB- fimL- pCuAlgent_mNeonGreen_cyaB_E189R CuA20</t>
+  </si>
+  <si>
+    <t>2590 fliC- cyaB- chpA- pCuAlgent_mNeonGreen_cyaB_E189R CuA20</t>
+  </si>
+  <si>
+    <t>2508 fliC- cyaB- cpdA- pilJ- pilG- pCuAlgent_mNeonGreen_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2509 fliC- cyaB- cpdA- chpA- pilG- pCuAlgent_mNeonGreen_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2510 fliC- cyaB- cpdA- chpA_AAA- pilG- pCuAlgent_mNeonGreen_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2511 fliC- cyaB- cpdA- pilJ- fimL- pCuAlgent_mNeonGreen_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2512 fliC- cyaB- cpdA- chpA- fimL- pCuAlgent_mNeonGreen_cyaB CuA20</t>
+  </si>
+  <si>
+    <t>2513 fliC- cyaB- cpdA- chpA_AAA- fimL- pCuAlgent_mNeonGreen_cyaB CuA20</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1114,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D57CDC3-BE0E-4632-89E2-812A3BBF6243}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241023</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>20241023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>20241023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>20241023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>20241023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>20241023</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>20241023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27EA21A-8F98-4F13-B77C-4593D059131C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,24 +1227,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B1">
-        <v>20240319</v>
+        <v>20231031</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>20240319</v>
+        <v>20231031</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>20231031</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>20231031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>20231031</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1286,311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B159C2D-0761-4E4A-BCC7-79B762792F08}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20230927</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>20230927</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>20230927</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>20230927</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FE0C4C-CD9E-4DC0-B0AD-285899C26B75}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20230815</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>20230815</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>20230815</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>20230815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>20230815</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>20230815</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4AEB9-AA4D-4A26-A630-96EDF89CC6C6}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20230809</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>20230809</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>20230809</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>20230809</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>20230809</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3DF069-ADAD-46F9-B4D7-A6590A126D6E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20230804</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>20230804</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>20230804</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>20230804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>20230804</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27085A6E-5C7C-4714-AF1E-877224E0D2BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1178,7 +1666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75924EC0-7616-46B6-8608-4C6C6A309157}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1254,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987F70B-0420-468F-A227-ACDAD9F04BD3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1341,7 +1829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B333D9F-8255-4F70-BEEA-78E18AE054EA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1439,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE3F416-AA2B-404C-ADDF-7DCEC724B3C3}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1592,7 +2080,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A6B3F-80D7-443E-A827-82EDC6547908}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241023</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>20241023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>20241023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>20241023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>20241023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>20241023</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>20241023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC743801-C7EA-49C3-ACC1-FA3EC60086D1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1679,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144790A5-6F0C-47CA-A161-1CBF69679C4A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1832,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F891E17-E7F1-4934-8801-EA87373960EC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1952,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC84F82E-74A3-4013-9E5C-C00EDFDFA593}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2017,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7EA1AC-C8C1-4737-8513-C9276683A579}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2082,116 +2668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D67615-7FF0-4A10-8A1D-DA39DC0C135D}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1">
-        <v>20240319</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>20240319</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>20240319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>20240319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>20240319</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>20240319</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>20240319</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>20240319</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD35581-7DD1-4666-BD50-5CDB2525AB28}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2256,7 +2733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAED695-6117-4D23-AA4C-293B5D909356}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2365,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A84C868-F8EF-436A-A77E-F38D40BDB78E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2432,6 +2909,463 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479EBB7B-66C3-45AA-A4AA-3157E307BEFF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241015</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>20241015</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>20241015</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>20241015</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>20241015</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>20241015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD5A0D-FF3E-4BF8-A004-4827ABCE12AD}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241011</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>20241011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>20241011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>20241011</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>20241011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>20241011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D341F1-F931-4216-88EB-AC9DB5E78410}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241002</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>20241002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>20241002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>20241002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>20241002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>20241002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0ECC82-11A5-4DA9-9DAE-56598B276E2F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>20241001</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>20241001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>20241001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>20241001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>20241001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>20241001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D67615-7FF0-4A10-8A1D-DA39DC0C135D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1">
+        <v>20240319</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>20240319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>20240319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>20240319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>20240319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>20240319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>20240319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>20240319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E80FED7-F505-4538-9EE8-E5E8FF1019BD}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2518,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E9E4E8-7E8B-4489-A9EE-C3C572ADD7AA}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2603,384 +3537,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27EA21A-8F98-4F13-B77C-4593D059131C}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>20231031</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>20231031</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>20231031</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>20231031</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>20231031</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B159C2D-0761-4E4A-BCC7-79B762792F08}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>20230927</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>20230927</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>20230927</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>20230927</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FE0C4C-CD9E-4DC0-B0AD-285899C26B75}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>20230815</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>20230815</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>20230815</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>20230815</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>20230815</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>20230815</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4AEB9-AA4D-4A26-A630-96EDF89CC6C6}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>20230809</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>20230809</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>20230809</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>20230809</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>20230809</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3DF069-ADAD-46F9-B4D7-A6590A126D6E}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>20230804</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>20230804</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>20230804</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>20230804</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>20230804</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>